--- a/23 DataWarehouse/Kettle/KettleCode/output/07_MExcel输出.xlsx
+++ b/23 DataWarehouse/Kettle/KettleCode/output/07_MExcel输出.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>aid</t>
   </si>
@@ -21,9 +21,6 @@
   </si>
   <si>
     <t>count</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
 </sst>
 </file>
@@ -60,19 +57,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0" applyNumberFormat="true"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0" applyNumberFormat="true"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0" applyNumberFormat="true"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="15" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -88,9 +84,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -101,9 +94,6 @@
       </c>
       <c r="C2" s="3" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>42500.0</v>
       </c>
     </row>
     <row r="3">
@@ -116,9 +106,6 @@
       <c r="C3" s="3" t="n">
         <v>2.0</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>42503.0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -129,9 +116,6 @@
       </c>
       <c r="C4" s="3" t="n">
         <v>5.0</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>42504.0</v>
       </c>
     </row>
     <row r="5">
@@ -144,9 +128,6 @@
       <c r="C5" s="3" t="n">
         <v>4.0</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>42504.0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -157,9 +138,6 @@
       </c>
       <c r="C6" s="3" t="n">
         <v>4.0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>42504.0</v>
       </c>
     </row>
     <row r="7">
@@ -172,9 +150,6 @@
       <c r="C7" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>42502.0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -185,9 +160,6 @@
       </c>
       <c r="C8" s="3" t="n">
         <v>1.0</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>2958446.0</v>
       </c>
     </row>
     <row r="9">
@@ -200,9 +172,6 @@
       <c r="C9" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>42502.0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
